--- a/MovieSystem/src/excel/账号信息.xlsx
+++ b/MovieSystem/src/excel/账号信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="162">
   <si>
     <t>账号类型</t>
   </si>
@@ -502,9 +502,6 @@
   </si>
   <si>
     <t>好吃的鸭脖</t>
-  </si>
-  <si>
-    <t>Ynuuser1!</t>
   </si>
 </sst>
 </file>
@@ -517,7 +514,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,14 +666,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,18 +860,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -977,74 +958,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1195,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1203,21 +1116,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1539,14 +1437,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.4424778761062"/>
-    <col min="3" max="3" customWidth="true" width="18.2212389380531"/>
-    <col min="4" max="4" customWidth="true" width="13.4424778761062"/>
-    <col min="6" max="6" customWidth="true" width="12.7787610619469"/>
-    <col min="7" max="7" customWidth="true" width="16.3362831858407"/>
-    <col min="8" max="8" customWidth="true" width="11.4424778761062"/>
-    <col min="9" max="9" customWidth="true" width="16.1061946902655"/>
-    <col min="10" max="10" customWidth="true" width="9.2212389380531"/>
+    <col min="2" max="2" width="14.4424778761062" customWidth="1"/>
+    <col min="3" max="3" width="18.2212389380531" customWidth="1"/>
+    <col min="4" max="4" width="13.4424778761062" customWidth="1"/>
+    <col min="6" max="6" width="12.7787610619469" customWidth="1"/>
+    <col min="7" max="7" width="16.3362831858407" customWidth="1"/>
+    <col min="8" max="8" width="11.4424778761062" customWidth="1"/>
+    <col min="9" max="9" width="16.1061946902655" customWidth="1"/>
+    <col min="10" max="10" width="9.2212389380531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1721,8 +1619,8 @@
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>162</v>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
